--- a/menu.xlsx
+++ b/menu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\NetBeansProjects\restaurant-management-application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56AD59F-0AFB-48D5-B4B3-55842905FECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD0CB77-2BB3-490F-8E4F-C223D728C283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1F33AB81-9ED0-477A-B264-3B3B472DEDDA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ไก่</t>
   </si>
@@ -42,10 +42,19 @@
     <t>ไข่</t>
   </si>
   <si>
-    <t>พะแนว</t>
-  </si>
-  <si>
-    <t>มาม่า</t>
+    <t>ส้ม</t>
+  </si>
+  <si>
+    <t>โรตี</t>
+  </si>
+  <si>
+    <t>พะแนง</t>
+  </si>
+  <si>
+    <t>หมูปิ้ง</t>
+  </si>
+  <si>
+    <t>แหนม</t>
   </si>
 </sst>
 </file>
@@ -398,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C434D0-C961-44A7-8DE3-41DD6CBEB97F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,12 +431,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
-        <v>5.0</v>
+      <c r="B4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>

--- a/menu.xlsx
+++ b/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\NetBeansProjects\restaurant-management-application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD0CB77-2BB3-490F-8E4F-C223D728C283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD3F4BD-205E-4857-956D-8E99BF984D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1F33AB81-9ED0-477A-B264-3B3B472DEDDA}"/>
   </bookViews>
@@ -34,27 +34,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>ไก่</t>
   </si>
   <si>
-    <t>ไข่</t>
-  </si>
-  <si>
-    <t>ส้ม</t>
-  </si>
-  <si>
-    <t>โรตี</t>
-  </si>
-  <si>
-    <t>พะแนง</t>
-  </si>
-  <si>
-    <t>หมูปิ้ง</t>
-  </si>
-  <si>
-    <t>แหนม</t>
+    <t>ไก่อร่อย</t>
+  </si>
+  <si>
+    <t>ww</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>chicken</t>
   </si>
 </sst>
 </file>
@@ -407,68 +419,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C434D0-C961-44A7-8DE3-41DD6CBEB97F}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="B1" t="n">
+        <v>10.0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>11.0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>15.0</v>
+      <c r="B3" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>

--- a/menu.xlsx
+++ b/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\NetBeansProjects\restaurant-management-application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD3F4BD-205E-4857-956D-8E99BF984D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD594A87-6F81-4D0C-B576-7800311DD6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1F33AB81-9ED0-477A-B264-3B3B472DEDDA}"/>
   </bookViews>
@@ -34,39 +34,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+  <si>
+    <t>ww</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
   <si>
     <t>ไก่</t>
   </si>
   <si>
-    <t>ไก่อร่อย</t>
-  </si>
-  <si>
-    <t>ww</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>gg</t>
-  </si>
-  <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>chicken</t>
+    <t>ไข่</t>
+  </si>
+  <si>
+    <t>ส้ม</t>
+  </si>
+  <si>
+    <t>พะแนง</t>
+  </si>
+  <si>
+    <t>ก๋วยเตี๋ยว</t>
+  </si>
+  <si>
+    <t>มาม่า</t>
+  </si>
+  <si>
+    <t>ลูกขึ้น</t>
+  </si>
+  <si>
+    <t>มะเขือ</t>
+  </si>
+  <si>
+    <t>จิ้งหรีด</t>
+  </si>
+  <si>
+    <t>หมาทอด</t>
+  </si>
+  <si>
+    <t>กรรเชียงปู</t>
+  </si>
+  <si>
+    <t>มะม่วง</t>
+  </si>
+  <si>
+    <t>กุนเชียง</t>
   </si>
 </sst>
 </file>
@@ -419,36 +449,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C434D0-C961-44A7-8DE3-41DD6CBEB97F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B1" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>5.0</v>
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="n">
+        <v>510.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>
